--- a/algorithm_demo_supplemental.xlsx
+++ b/algorithm_demo_supplemental.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10048\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69B4EAD-D62B-4374-91E0-3D795BB2871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07336528-F3D4-48A2-963C-FB144A02C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3693" yWindow="1560" windowWidth="19200" windowHeight="9980" xr2:uid="{A2CB4C35-A1F6-4796-94A5-38F8FE35FB62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A2CB4C35-A1F6-4796-94A5-38F8FE35FB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Subtracting by the lowest rank M-1</t>
-  </si>
-  <si>
     <t>max_num_patient = 2</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>patients has been exceeded (3&gt;2). We set this column aside for now.</t>
   </si>
   <si>
-    <t>Looking at our other columns, we see that Columns 2 and 3 have 0's. Both columns have a # of 0's less than</t>
-  </si>
-  <si>
     <t>the maximum patient per doctor, where Column 2 has 1 and Column 3 has 2, meaning we may assign</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t xml:space="preserve">the overpopulated column, and  we observe that this is the case for Row 1, meaning that we set the original 0 to -1 and </t>
   </si>
   <si>
-    <t>assign the remaining patients</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finally, we see that Patient 0's next best choice is Doctor 1, and we assign accordingly. </t>
   </si>
   <si>
@@ -107,6 +98,15 @@
   </si>
   <si>
     <t>Patient 6</t>
+  </si>
+  <si>
+    <t>Subtracting by the lowest rank M-1 and label all the new zeros</t>
+  </si>
+  <si>
+    <t>Looking at our columns, we see that Columns 2 and 3 have 0's. Both columns have a # of 0's less than</t>
+  </si>
+  <si>
+    <t>assign the remaining patients if they are within the maximum patient per doctor.</t>
   </si>
 </sst>
 </file>
@@ -167,13 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,34 +491,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BEF33E-9166-4FED-93EB-2E284797182D}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -529,12 +530,12 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -546,9 +547,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -560,9 +561,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -574,9 +575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -588,9 +589,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -602,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>0</v>
       </c>
@@ -613,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>0</v>
       </c>
@@ -627,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0</v>
       </c>
@@ -638,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>1</v>
       </c>
@@ -649,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>1</v>
       </c>
@@ -660,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>2</v>
       </c>
@@ -671,8 +672,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C19" s="3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19">
@@ -682,52 +683,52 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -738,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>2</v>
       </c>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="3">
         <v>0</v>
       </c>
@@ -760,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="3">
         <v>0</v>
       </c>
@@ -774,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="3">
         <v>0</v>
       </c>
@@ -788,8 +789,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C30" s="3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
@@ -799,8 +800,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C31" s="3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="2">
@@ -810,8 +811,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C32" s="3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1">
@@ -821,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="3">
         <v>-1</v>
       </c>
@@ -832,38 +833,38 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="1">
         <v>1</v>
       </c>
@@ -874,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="1">
         <v>1</v>
       </c>
@@ -888,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>2</v>
       </c>
@@ -899,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="3">
         <v>-1</v>
       </c>
@@ -910,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44" s="4">
         <v>0</v>
       </c>
@@ -924,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="4">
         <v>0</v>
       </c>
@@ -935,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="1">
         <v>1</v>
       </c>
@@ -946,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
         <v>1</v>
       </c>
@@ -957,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C48" s="1">
         <v>2</v>
       </c>
